--- a/Projects/TestNGAPITesting-master/src/test/resources/flourescene_Masters_Excel.xlsx
+++ b/Projects/TestNGAPITesting-master/src/test/resources/flourescene_Masters_Excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>JAPAN AUCTION MASTERS</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>NewMaster20250327093009</t>
+  </si>
+  <si>
+    <t>NewMaster20250418091155</t>
+  </si>
+  <si>
+    <t>NewMaster20250418091931</t>
   </si>
 </sst>
 </file>
@@ -463,7 +469,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
